--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/new tablegrid for discover images feature .xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/new tablegrid for discover images feature .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B96067A-6EB6-5F46-B5A6-B1CBD11F308B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24743D8C-7572-5944-B3C0-CA547422AC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{C29341EC-3848-8049-97F1-A224045E3A5E}"/>
   </bookViews>

--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/new tablegrid for discover images feature .xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/new tablegrid for discover images feature .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24743D8C-7572-5944-B3C0-CA547422AC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BE39CA-B671-884D-9F14-893CCD58871D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{C29341EC-3848-8049-97F1-A224045E3A5E}"/>
   </bookViews>
@@ -445,7 +445,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/new tablegrid for discover images feature .xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/new tablegrid for discover images feature .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BE39CA-B671-884D-9F14-893CCD58871D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBE30B4-C74F-394A-8CFB-ED613D06E930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{C29341EC-3848-8049-97F1-A224045E3A5E}"/>
   </bookViews>
@@ -36,19 +36,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">new tablegrid for discover images feature </t>
   </si>
   <si>
     <t>discover image bays</t>
   </si>
+  <si>
+    <t>tuscaloosapestcontrol.net</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -69,6 +72,12 @@
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -103,10 +112,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,11 +451,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8551B1-8CF1-1343-83C9-8F3055529C77}">
-  <dimension ref="E1:E12"/>
+  <dimension ref="E1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,6 +476,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/new tablegrid for discover images feature .xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/new tablegrid for discover images feature .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBE30B4-C74F-394A-8CFB-ED613D06E930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F614BB24-4F65-BF43-B0C7-2C7FF3EF5EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{C29341EC-3848-8049-97F1-A224045E3A5E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">new tablegrid for discover images feature </t>
   </si>
@@ -45,18 +45,102 @@
   </si>
   <si>
     <t>tuscaloosapestcontrol.net</t>
+  </si>
+  <si>
+    <t>please create a new tab:</t>
+  </si>
+  <si>
+    <t>in the vesicle chamber named:</t>
+  </si>
+  <si>
+    <t>rhino_replace</t>
+  </si>
+  <si>
+    <t>inside the tab's content, please place the following:</t>
+  </si>
+  <si>
+    <t>a button that says:</t>
+  </si>
+  <si>
+    <t>run rhino_replace</t>
+  </si>
+  <si>
+    <t>(dynamically called qty) images currently selected</t>
+  </si>
+  <si>
+    <t>text that says:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">then below that, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">do not create any functionality yet </t>
+  </si>
+  <si>
+    <t>the dynamic qty should show the qty of images selected in the main ui table grid on /tebnar2 screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">under the rhino_replace button </t>
+  </si>
+  <si>
+    <t>✅ Narpi push created successfully!</t>
+  </si>
+  <si>
+    <t>Creating narpi push record…</t>
+  </si>
+  <si>
+    <t>Narpi Push Record</t>
+  </si>
+  <si>
+    <t>Narpi Push Upload</t>
+  </si>
+  <si>
+    <t>Cliff Arrangement</t>
+  </si>
+  <si>
+    <t>pleaes show an all gray / empty / inactive progress bar here by default (even if user is not running the function, etc.)</t>
+  </si>
+  <si>
+    <t>in the rhino_replace tab area</t>
+  </si>
+  <si>
+    <t>pleae create a new bare bones ui table grid with 3 rows and 2 columns</t>
+  </si>
+  <si>
+    <t>don’t have any styling on the table other than a border of 1 px solid black with border collapse</t>
+  </si>
+  <si>
+    <t>in the left column we must have these texts listed:</t>
+  </si>
+  <si>
+    <t>in the right column, for each row, we have a progress bar for each</t>
+  </si>
+  <si>
+    <t xml:space="preserve">please do not build any functionality yet </t>
+  </si>
+  <si>
+    <t>we are just creating the ui</t>
+  </si>
+  <si>
+    <t>the rhino replace function will be a multi-phase process</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -75,9 +159,8 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="Inter"/>
     </font>
   </fonts>
   <fills count="4">
@@ -112,11 +195,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -132,6 +216,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>719667</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>65245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3124200</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>29632</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01F81768-CBDF-5AA1-1EEF-5474AB77EC22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3818467" y="12460445"/>
+          <a:ext cx="3234266" cy="980387"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,37 +584,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8551B1-8CF1-1343-83C9-8F3055529C77}">
-  <dimension ref="E1:E18"/>
+  <dimension ref="E1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="5" max="5" width="46.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="5:5" s="1" customFormat="1"/>
+    <row r="7" spans="5:5">
       <c r="E7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="5:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="5:5" s="2" customFormat="1"/>
+    <row r="12" spans="5:5">
       <c r="E12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:5">
       <c r="E18" s="3" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="22" spans="5:5" s="2" customFormat="1"/>
+    <row r="23" spans="5:5" s="1" customFormat="1"/>
+    <row r="26" spans="5:5">
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5">
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" s="2" customFormat="1"/>
+    <row r="53" spans="5:5">
+      <c r="E53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5">
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5">
+      <c r="E57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5">
+      <c r="E58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5">
+      <c r="E60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="5:5">
+      <c r="E61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="5:5">
+      <c r="E62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="5:5">
+      <c r="E63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5">
+      <c r="E65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5">
+      <c r="E66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5">
+      <c r="E68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5">
+      <c r="E70" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5">
+      <c r="E72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5">
+      <c r="E81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5">
+      <c r="E82" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/new tablegrid for discover images feature .xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/new tablegrid for discover images feature .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F614BB24-4F65-BF43-B0C7-2C7FF3EF5EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE65779-DD55-D947-8887-3D64F4DF276F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{C29341EC-3848-8049-97F1-A224045E3A5E}"/>
   </bookViews>
@@ -587,8 +587,8 @@
   <dimension ref="E1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
